--- a/SendData.xlsx
+++ b/SendData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{324D26D6-5059-49E2-BB3D-76B47FC1161A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E96C4D06-20DA-46F0-8979-D8C2DD209280}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2730" windowWidth="28800" windowHeight="13260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2940" windowWidth="28800" windowHeight="13260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Recipients" sheetId="1" r:id="rId1"/>
@@ -25,8 +25,70 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{76E3B0B0-51BE-4B18-B1C2-80268C6B2C14}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Split by ;
+Didapatkan dari folder Media
+kalau kosong artinya tidak send media apa apa</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{43E6F45E-E148-4D74-8974-62A0C92AF3C4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Split by ;
+Didapatkan dari folder Document
+Kalau kosong artinya tidak send document apa apa</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Message</t>
   </si>
@@ -56,12 +118,18 @@
   <si>
     <t>6281563063042</t>
   </si>
+  <si>
+    <t>Document</t>
+  </si>
+  <si>
+    <t>Surat Permohonan Ijin Penelitian.pdf</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,16 +137,49 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -86,15 +187,61 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -103,29 +250,53 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="1">
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -141,19 +312,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:A3" totalsRowShown="0" dataDxfId="5">
-  <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Contact" dataDxfId="4"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="B1:C3" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Message" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{861734DF-A3F1-4BCD-82F7-D6DBCC975CB8}" name="Media" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{595B7ED2-AE38-459A-ACD8-9ECF46D2B652}" name="Table1" displayName="Table1" ref="A1:D3" totalsRowShown="0" tableBorderDxfId="0">
+  <autoFilter ref="A1:D3" xr:uid="{595B7ED2-AE38-459A-ACD8-9ECF46D2B652}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{58686401-3FAA-4E82-9FA9-09ECE5C25183}" name="Contact"/>
+    <tableColumn id="2" xr3:uid="{8BE4118D-A29F-4546-ADDC-7D97BA5BC6B0}" name="Message"/>
+    <tableColumn id="3" xr3:uid="{B774DBE6-940B-4089-9835-FBE5AB048D73}" name="Media"/>
+    <tableColumn id="4" xr3:uid="{E35C05D9-89E3-49CA-9602-3133AAA14C7C}" name="Document"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -479,88 +644,95 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" style="3" customWidth="1"/>
     <col min="3" max="3" width="92.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" s="2" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="1" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="10" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" s="3" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="2" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="13" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
+      <c r="D3"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <tableParts count="2">
-    <tablePart r:id="rId2"/>
+  <legacyDrawing r:id="rId2"/>
+  <tableParts count="1">
     <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
